--- a/sb/spec/fixtures/files/exam_registration/ng.xlsx
+++ b/sb/spec/fixtures/files/exam_registration/ng.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\git\securebox\sb\spec\fixtures\files\exam_registration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EF2587-4C6A-4E12-98E7-FCB5B0F7B1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696EEB87-E390-4FD0-A80C-2C340C953AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{52DCD167-5BFB-4E8B-AEA3-CE60D624386D}"/>
+    <workbookView xWindow="4965" yWindow="45" windowWidth="28800" windowHeight="14850" xr2:uid="{52DCD167-5BFB-4E8B-AEA3-CE60D624386D}"/>
   </bookViews>
   <sheets>
     <sheet name="審査依頼書" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>保証先</t>
     <rPh sb="0" eb="2">
@@ -497,6 +497,39 @@
   <si>
     <t>aaa</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>顧客管理番号</t>
+    <rPh sb="0" eb="4">
+      <t>コキャクカンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>御社の管理番号をご記入ください</t>
+    <rPh sb="0" eb="2">
+      <t>オンシャ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>カンリバンゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CI001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CI002</t>
+  </si>
+  <si>
+    <t>CI003</t>
   </si>
 </sst>
 </file>
@@ -687,7 +720,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,6 +782,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1086,58 +1122,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6260ADF3-A91F-41D8-8F42-F43B74C1EDEA}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
-    <col min="6" max="6" width="27.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.08203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" style="20" customWidth="1"/>
-    <col min="11" max="11" width="12.08203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" style="20" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.375" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="24" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="25"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R1" s="26"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1150,47 +1188,50 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
@@ -1199,41 +1240,44 @@
       <c r="D3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="27"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R3" s="28"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
         <v>29</v>
       </c>
@@ -1247,36 +1291,39 @@
         <v>32</v>
       </c>
       <c r="E4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="H4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="17">
+      <c r="I4" s="17">
         <v>2</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="J4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="17"/>
+      <c r="N4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="18">
+      <c r="O4" s="15"/>
+      <c r="P4" s="18">
         <v>5000000</v>
       </c>
-      <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R4" s="15"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="15" t="s">
         <v>38</v>
       </c>
@@ -1290,36 +1337,39 @@
         <v>41</v>
       </c>
       <c r="E5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="17">
+      <c r="I5" s="17">
         <v>2</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="J5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="17"/>
+      <c r="N5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="18">
+      <c r="O5" s="15"/>
+      <c r="P5" s="18">
         <v>5000000</v>
       </c>
-      <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="15" t="s">
         <v>44</v>
       </c>
@@ -1333,425 +1383,448 @@
         <v>47</v>
       </c>
       <c r="E6" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="H6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="17">
+      <c r="I6" s="17">
         <v>2</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="J6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="17"/>
+      <c r="N6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="18">
+      <c r="O6" s="15"/>
+      <c r="P6" s="18">
         <v>5000000</v>
       </c>
-      <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R6" s="15"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="17"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="15"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="18"/>
       <c r="Q7" s="15"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R7" s="15"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="17"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="15"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="18"/>
       <c r="Q8" s="15"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R8" s="15"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="15"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="18"/>
       <c r="Q9" s="15"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R9" s="15"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="15"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="18"/>
       <c r="Q10" s="15"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R10" s="15"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="15"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="18"/>
       <c r="Q11" s="15"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R11" s="15"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="17"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="15"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="18"/>
       <c r="Q12" s="15"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R12" s="15"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="17"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="15"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="18"/>
       <c r="Q13" s="15"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R13" s="15"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="17"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="15"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="18"/>
       <c r="Q14" s="15"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R14" s="15"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="17"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="15"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="18"/>
       <c r="Q15" s="15"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R15" s="15"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="17"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="15"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="18"/>
       <c r="Q16" s="15"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R16" s="15"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="17"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="15"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="18"/>
       <c r="Q17" s="15"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R17" s="15"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="17"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="15"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="18"/>
       <c r="Q18" s="15"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R18" s="15"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="17"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="15"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="18"/>
       <c r="Q19" s="15"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R19" s="15"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="17"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="15"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="18"/>
       <c r="Q20" s="15"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R20" s="15"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="17"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="15"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="18"/>
       <c r="Q21" s="15"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R21" s="15"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="17"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="15"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="18"/>
       <c r="Q22" s="15"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R22" s="15"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="17"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="15"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="15"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="18"/>
       <c r="Q23" s="15"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R23" s="15"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="17"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="15"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="18"/>
       <c r="Q24" s="15"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R24" s="15"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="17"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="15"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="18"/>
       <c r="Q25" s="15"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R25" s="15"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="17"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="15"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="18"/>
       <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:N1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q3:R3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J26" xr:uid="{E47ACF3C-E24C-4019-9B56-3660480FE90B}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K26" xr:uid="{E47ACF3C-E24C-4019-9B56-3660480FE90B}">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
